--- a/assets/tableau.xlsx
+++ b/assets/tableau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikoolaii/Projets/Web/HTML/Portfolio/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA45B9-CCAD-0841-8CF1-ABEA994BB673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98B08E-8CC7-D342-8D67-F2902829D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mise en place d'un portfolio</t>
+  </si>
+  <si>
+    <t>Mise en place d'un système de continuation de services (Base de données et web)</t>
   </si>
 </sst>
 </file>
@@ -636,9 +639,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -647,39 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="113" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1039,56 +1042,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1100,10 +1103,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1126,8 +1129,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
@@ -1183,16 +1186,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1537,13 +1540,17 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1717,16 +1724,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2144,16 +2151,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2661,17 +2668,17 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2682,6 +2689,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf603481-4dbe-4dc5-b197-b6c6b20cd503">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b6da9684-9d74-4a21-95fb-123a323f2905" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A6E8FF1B0F605F428D192487603B4D8E" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5369e6bcb6df46bc613a8f3c8655c0e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf603481-4dbe-4dc5-b197-b6c6b20cd503" xmlns:ns3="b6da9684-9d74-4a21-95fb-123a323f2905" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8237ba5fb4350689429d55db1f8d6a84" ns2:_="" ns3:_="">
     <xsd:import namespace="bf603481-4dbe-4dc5-b197-b6c6b20cd503"/>
@@ -2898,27 +2925,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf603481-4dbe-4dc5-b197-b6c6b20cd503">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b6da9684-9d74-4a21-95fb-123a323f2905" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE8A23F8-23DD-4B1C-954E-150B88DEDBFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CCDF7B4-C2F1-49D5-BEB2-EE0AE4ECF74E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf603481-4dbe-4dc5-b197-b6c6b20cd503"/>
+    <ds:schemaRef ds:uri="b6da9684-9d74-4a21-95fb-123a323f2905"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0A7A0C-181B-4A8C-9912-89243C8498A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2935,23 +2961,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CCDF7B4-C2F1-49D5-BEB2-EE0AE4ECF74E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf603481-4dbe-4dc5-b197-b6c6b20cd503"/>
-    <ds:schemaRef ds:uri="b6da9684-9d74-4a21-95fb-123a323f2905"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE8A23F8-23DD-4B1C-954E-150B88DEDBFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/tableau.xlsx
+++ b/assets/tableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikoolaii/Projets/Web/HTML/Portfolio/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98B08E-8CC7-D342-8D67-F2902829D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E5E2C-1DF7-4A41-97AA-00FB4357EFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="860" windowWidth="30660" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="500" windowWidth="30660" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mise en place d'un client lourd </t>
-  </si>
-  <si>
-    <t>Travail en équipe dans l'objectif de la réalisation d'un projet</t>
   </si>
   <si>
     <t>Mise en place d'un site de E-Commerce avec ajout de fiches produits</t>
@@ -263,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -551,12 +548,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,6 +702,54 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1028,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1042,56 +1154,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:43" ht="41" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1103,10 +1215,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1129,8 +1241,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
@@ -1186,16 +1298,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1442,18 +1554,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
+      <c r="A12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="25"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1491,18 +1603,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="25" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="40" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="42"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1540,18 +1654,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1589,14 +1699,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1724,16 +1834,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2151,16 +2261,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="53"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2199,7 +2309,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="21"/>
@@ -2254,7 +2364,7 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="21"/>
@@ -2303,7 +2413,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="21"/>
